--- a/PredictionSheets/VM 2014 Tippekonkuranse GJH.xlsx
+++ b/PredictionSheets/VM 2014 Tippekonkuranse GJH.xlsx
@@ -5,11 +5,11 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\R\Documents\GitHub\VMTipping\PredictionSheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10848" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10845" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Gruppespilltipp" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="137">
   <si>
     <t>Group A</t>
   </si>
@@ -421,9 +421,6 @@
     <t>Geir</t>
   </si>
   <si>
-    <t>Nederland</t>
-  </si>
-  <si>
     <t>Spania</t>
   </si>
   <si>
@@ -434,9 +431,6 @@
   </si>
   <si>
     <t>Ecuadaor</t>
-  </si>
-  <si>
-    <t>Tyskland</t>
   </si>
   <si>
     <t>Belgia</t>
@@ -1789,12 +1783,12 @@
       <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="11" width="14.44140625" customWidth="1"/>
+    <col min="1" max="11" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:15" ht="21" x14ac:dyDescent="0.35">
       <c r="B1" s="19" t="s">
         <v>44</v>
       </c>
@@ -1804,13 +1798,13 @@
       <c r="N1" s="61"/>
       <c r="O1" s="61"/>
     </row>
-    <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L2" s="61"/>
       <c r="M2" s="61"/>
       <c r="N2" s="61"/>
       <c r="O2" s="61"/>
     </row>
-    <row r="3" spans="1:15" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" ht="28.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
         <v>45</v>
       </c>
@@ -1825,13 +1819,13 @@
       <c r="N3" s="61"/>
       <c r="O3" s="61"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="L4" s="61"/>
       <c r="M4" s="61"/>
       <c r="N4" s="61"/>
       <c r="O4" s="61"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>42</v>
       </c>
@@ -1849,7 +1843,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C9" s="1" t="s">
         <v>41</v>
       </c>
@@ -1864,7 +1858,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -1890,7 +1884,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>1</v>
       </c>
@@ -1924,7 +1918,7 @@
         <v>A</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>3</v>
       </c>
@@ -1958,7 +1952,7 @@
         <v>H</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>1</v>
       </c>
@@ -1992,7 +1986,7 @@
         <v>A</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>4</v>
       </c>
@@ -2026,7 +2020,7 @@
         <v>D</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>4</v>
       </c>
@@ -2060,7 +2054,7 @@
         <v>D</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" ht="28.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
         <v>2</v>
       </c>
@@ -2094,7 +2088,7 @@
         <v>D</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="2"/>
@@ -2102,7 +2096,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -2116,7 +2110,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>6</v>
       </c>
@@ -2150,7 +2144,7 @@
         <v>H</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>8</v>
       </c>
@@ -2184,7 +2178,7 @@
         <v>A</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>6</v>
       </c>
@@ -2218,7 +2212,7 @@
         <v>H</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>9</v>
       </c>
@@ -2252,7 +2246,7 @@
         <v>D</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>9</v>
       </c>
@@ -2286,7 +2280,7 @@
         <v>A</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" ht="28.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
         <v>7</v>
       </c>
@@ -2320,7 +2314,7 @@
         <v>D</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="2"/>
@@ -2328,7 +2322,7 @@
       <c r="J25" s="1"/>
       <c r="K25" s="2"/>
     </row>
-    <row r="26" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>10</v>
       </c>
@@ -2342,7 +2336,7 @@
       <c r="J26" s="1"/>
       <c r="K26" s="2"/>
     </row>
-    <row r="27" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>11</v>
       </c>
@@ -2376,7 +2370,7 @@
         <v>H</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
         <v>13</v>
       </c>
@@ -2410,7 +2404,7 @@
         <v>D</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
         <v>11</v>
       </c>
@@ -2444,7 +2438,7 @@
         <v>H</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>14</v>
       </c>
@@ -2478,7 +2472,7 @@
         <v>D</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>14</v>
       </c>
@@ -2512,7 +2506,7 @@
         <v>A</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:11" ht="28.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="10" t="s">
         <v>12</v>
       </c>
@@ -2546,7 +2540,7 @@
         <v>A</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="2"/>
@@ -2554,7 +2548,7 @@
       <c r="J33" s="1"/>
       <c r="K33" s="2"/>
     </row>
-    <row r="34" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>15</v>
       </c>
@@ -2568,7 +2562,7 @@
       <c r="J34" s="1"/>
       <c r="K34" s="2"/>
     </row>
-    <row r="35" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>16</v>
       </c>
@@ -2602,7 +2596,7 @@
         <v>D</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
         <v>18</v>
       </c>
@@ -2636,7 +2630,7 @@
         <v>H</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
         <v>16</v>
       </c>
@@ -2670,7 +2664,7 @@
         <v>D</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
         <v>19</v>
       </c>
@@ -2704,7 +2698,7 @@
         <v>D</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
         <v>19</v>
       </c>
@@ -2738,7 +2732,7 @@
         <v>A</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:11" ht="28.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="10" t="s">
         <v>17</v>
       </c>
@@ -2772,7 +2766,7 @@
         <v>A</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="21"/>
     </row>
   </sheetData>
@@ -2795,28 +2789,28 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
         <v>1</v>
       </c>
@@ -2824,13 +2818,13 @@
         <v>11</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
         <v>4</v>
       </c>
@@ -2838,15 +2832,15 @@
         <v>12</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D5" s="27" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B6" s="26" t="s">
         <v>18</v>
@@ -2855,24 +2849,24 @@
         <v>26</v>
       </c>
       <c r="D6" s="27" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="28" t="s">
-        <v>131</v>
+        <v>7</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C7" s="29" t="s">
         <v>29</v>
       </c>
       <c r="D7" s="30" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="31" t="s">
         <v>47</v>
       </c>
@@ -2880,7 +2874,7 @@
       <c r="C10" s="32"/>
       <c r="D10" s="32"/>
     </row>
-    <row r="11" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="33" t="s">
         <v>1</v>
       </c>
@@ -2888,18 +2882,18 @@
         <v>18</v>
       </c>
       <c r="C11" s="34" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D11" s="35" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="B12" s="37" t="s">
         <v>132</v>
-      </c>
-      <c r="B12" s="37" t="s">
-        <v>133</v>
       </c>
       <c r="C12" s="37" t="s">
         <v>26</v>
@@ -2908,12 +2902,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="39" t="s">
         <v>1</v>
       </c>
@@ -2927,12 +2921,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="39" t="s">
         <v>1</v>
       </c>
@@ -2969,15 +2963,15 @@
       <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="33" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.109375" customWidth="1"/>
-    <col min="7" max="7" width="9.109375" style="44"/>
-    <col min="9" max="9" width="13.33203125" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="44"/>
+    <col min="9" max="9" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>52</v>
       </c>
@@ -2985,7 +2979,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="47">
         <v>41802</v>
       </c>
@@ -3003,7 +2997,7 @@
       </c>
       <c r="G2" s="45"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="51">
         <v>41803</v>
       </c>
@@ -3030,7 +3024,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="51">
         <v>41807</v>
       </c>
@@ -3057,7 +3051,7 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="51">
         <v>41809</v>
       </c>
@@ -3084,7 +3078,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="51">
         <v>41813</v>
       </c>
@@ -3111,7 +3105,7 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="54">
         <v>41813</v>
       </c>
@@ -3138,7 +3132,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="58"/>
       <c r="B8" s="59"/>
       <c r="C8" s="21"/>
@@ -3157,7 +3151,7 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="47">
         <v>41803</v>
       </c>
@@ -3184,7 +3178,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="51">
         <v>41804</v>
       </c>
@@ -3211,7 +3205,7 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="51">
         <v>41808</v>
       </c>
@@ -3227,7 +3221,7 @@
       <c r="F11" s="43"/>
       <c r="G11" s="46"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="51">
         <v>41808</v>
       </c>
@@ -3245,7 +3239,7 @@
       </c>
       <c r="G12" s="46"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="51">
         <v>41813</v>
       </c>
@@ -3272,7 +3266,7 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="54">
         <v>41813</v>
       </c>
@@ -3299,7 +3293,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="61" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="58"/>
       <c r="B15" s="59"/>
       <c r="C15" s="21"/>
@@ -3318,7 +3312,7 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="47">
         <v>41804</v>
       </c>
@@ -3347,7 +3341,7 @@
       </c>
       <c r="K16" s="21"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="51">
         <v>41805</v>
       </c>
@@ -3363,7 +3357,7 @@
       <c r="F17" s="43"/>
       <c r="G17" s="46"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="51">
         <v>41809</v>
       </c>
@@ -3381,7 +3375,7 @@
       </c>
       <c r="G18" s="46"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="51">
         <v>41810</v>
       </c>
@@ -3408,7 +3402,7 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="51">
         <v>41814</v>
       </c>
@@ -3435,7 +3429,7 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="54">
         <v>41814</v>
       </c>
@@ -3451,7 +3445,7 @@
       <c r="F21" s="43"/>
       <c r="G21" s="46"/>
     </row>
-    <row r="22" spans="1:10" s="61" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="58"/>
       <c r="B22" s="59"/>
       <c r="C22" s="21"/>
@@ -3461,7 +3455,7 @@
       </c>
       <c r="G22" s="63"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="47">
         <v>41804</v>
       </c>
@@ -3486,7 +3480,7 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="51">
         <v>41805</v>
       </c>
@@ -3502,7 +3496,7 @@
       <c r="F24" s="43"/>
       <c r="G24" s="46"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="51">
         <v>41809</v>
       </c>
@@ -3520,7 +3514,7 @@
       </c>
       <c r="G25" s="46"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="51">
         <v>41810</v>
       </c>
@@ -3545,7 +3539,7 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="51">
         <v>41814</v>
       </c>
@@ -3560,7 +3554,7 @@
       </c>
       <c r="F27" s="42"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="54">
         <v>41814</v>
       </c>
@@ -3575,7 +3569,7 @@
       </c>
       <c r="F28" s="42"/>
     </row>
-    <row r="29" spans="1:10" s="61" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="58"/>
       <c r="B29" s="59"/>
       <c r="C29" s="21"/>
@@ -3583,7 +3577,7 @@
       <c r="F29" s="64"/>
       <c r="G29" s="65"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="47">
         <v>41805</v>
       </c>
@@ -3601,7 +3595,7 @@
       <c r="G30" s="83"/>
       <c r="H30" s="84"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="51">
         <v>41805</v>
       </c>
@@ -3616,7 +3610,7 @@
       </c>
       <c r="F31" s="42"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="51">
         <v>41810</v>
       </c>
@@ -3631,7 +3625,7 @@
       </c>
       <c r="F32" s="42"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="51">
         <v>41811</v>
       </c>
@@ -3646,7 +3640,7 @@
       </c>
       <c r="F33" s="42"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="51">
         <v>41815</v>
       </c>
@@ -3661,7 +3655,7 @@
       </c>
       <c r="F34" s="42"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="54">
         <v>41815</v>
       </c>
@@ -3676,14 +3670,14 @@
       </c>
       <c r="F35" s="42"/>
     </row>
-    <row r="36" spans="1:7" s="61" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="58"/>
       <c r="B36" s="59"/>
       <c r="C36" s="21"/>
       <c r="D36" s="60"/>
       <c r="G36" s="65"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="47">
         <v>41806</v>
       </c>
@@ -3697,7 +3691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="51">
         <v>41806</v>
       </c>
@@ -3711,7 +3705,7 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="51">
         <v>41811</v>
       </c>
@@ -3725,7 +3719,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="51">
         <v>41812</v>
       </c>
@@ -3739,7 +3733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="51">
         <v>41815</v>
       </c>
@@ -3753,7 +3747,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="54">
         <v>41815</v>
       </c>
@@ -3767,14 +3761,14 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="43" spans="1:7" s="61" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="58"/>
       <c r="B43" s="59"/>
       <c r="C43" s="21"/>
       <c r="D43" s="60"/>
       <c r="G43" s="65"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="47">
         <v>41806</v>
       </c>
@@ -3788,7 +3782,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="51">
         <v>41807</v>
       </c>
@@ -3802,7 +3796,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="51">
         <v>41811</v>
       </c>
@@ -3816,7 +3810,7 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="51">
         <v>41813</v>
       </c>
@@ -3830,7 +3824,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="51">
         <v>41816</v>
       </c>
@@ -3844,7 +3838,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="54">
         <v>41816</v>
       </c>
@@ -3858,14 +3852,14 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="50" spans="1:7" s="61" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="58"/>
       <c r="B50" s="59"/>
       <c r="C50" s="21"/>
       <c r="D50" s="60"/>
       <c r="G50" s="65"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="47">
         <v>41807</v>
       </c>
@@ -3879,7 +3873,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="51">
         <v>41808</v>
       </c>
@@ -3893,7 +3887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="51">
         <v>41812</v>
       </c>
@@ -3907,7 +3901,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="51">
         <v>41812</v>
       </c>
@@ -3921,7 +3915,7 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="51">
         <v>41816</v>
       </c>
@@ -3935,7 +3929,7 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="54">
         <v>41816</v>
       </c>
